--- a/Symphony/2021/Others/Price List/Price List -25.04.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -25.04.2021.xlsx
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="147">
-  <si>
-    <t xml:space="preserve">SL </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="138">
   <si>
     <t>Model Name</t>
   </si>
@@ -86,15 +83,9 @@
     <t>i74_SKD</t>
   </si>
   <si>
-    <t>i95_SKD</t>
-  </si>
-  <si>
     <t>i97_SKD</t>
   </si>
   <si>
-    <t>i98_SKD</t>
-  </si>
-  <si>
     <t>i99_SKD</t>
   </si>
   <si>
@@ -110,15 +101,9 @@
     <t>L95</t>
   </si>
   <si>
-    <t>L130</t>
-  </si>
-  <si>
     <t>L135_SKD</t>
   </si>
   <si>
-    <t>L250i</t>
-  </si>
-  <si>
     <t>L260_SKD</t>
   </si>
   <si>
@@ -131,9 +116,6 @@
     <t>V99Plus_SKD</t>
   </si>
   <si>
-    <t>V102_SKD</t>
-  </si>
-  <si>
     <t>Z12_SKD</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>Z28_SKD</t>
   </si>
   <si>
-    <t>Z50_SKD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Price List of Symphony Mobile Phone </t>
   </si>
   <si>
@@ -254,9 +233,6 @@
     <t>5"</t>
   </si>
   <si>
-    <t>2150mAh</t>
-  </si>
-  <si>
     <t>6.09"</t>
   </si>
   <si>
@@ -266,9 +242,6 @@
     <t>5000mAh</t>
   </si>
   <si>
-    <t>6.5"</t>
-  </si>
-  <si>
     <t>5MP+5MP</t>
   </si>
   <si>
@@ -278,9 +251,6 @@
     <t>8MP+8MP</t>
   </si>
   <si>
-    <t>13MP+8MP</t>
-  </si>
-  <si>
     <t>8MP+13MP</t>
   </si>
   <si>
@@ -294,9 +264,6 @@
   </si>
   <si>
     <t>8MP+2MP+5MP+13MP</t>
-  </si>
-  <si>
-    <t>8MP+2MP+2MP+13MP</t>
   </si>
   <si>
     <t>6.22"</t>
@@ -479,7 +446,13 @@
     <t>8 (8GB+128GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 26/04/2021</t>
+    <t>Last Updated on: 03/05/2021</t>
+  </si>
+  <si>
+    <t>Helio - G35  Gaming Processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN </t>
   </si>
 </sst>
 </file>
@@ -597,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,12 +586,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,28 +742,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,13 +839,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>148525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -914,7 +863,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="66675" y="11229975"/>
+          <a:off x="66675" y="10601325"/>
           <a:ext cx="5019675" cy="310450"/>
           <a:chOff x="253" y="246"/>
           <a:chExt cx="346" cy="308"/>
@@ -3259,11 +3208,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P52" sqref="P52"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3277,88 +3226,88 @@
     <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="A1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="A2" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="A3" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="3" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C5" s="12">
         <v>6610.7</v>
@@ -3382,13 +3331,13 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K5" s="11"/>
     </row>
@@ -3397,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="15">
         <f>((D6*0.0025)+D6)</f>
@@ -3416,13 +3365,13 @@
         <v>44212</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K6" s="10"/>
     </row>
@@ -3431,13 +3380,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="25">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19">
         <f>((D7*0.0025)+D7)</f>
         <v>809.01750000000004</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="19">
         <v>807</v>
       </c>
       <c r="E7" s="16">
@@ -3450,13 +3399,13 @@
         <v>44212</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K7" s="10"/>
     </row>
@@ -3465,10 +3414,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="16">
         <v>940</v>
       </c>
@@ -3477,13 +3426,13 @@
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K8" s="10"/>
     </row>
@@ -3492,13 +3441,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="25">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" ref="C9:C10" si="0">((D9*0.0025)+D9)</f>
         <v>819.04250000000002</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="19">
         <v>817</v>
       </c>
       <c r="E9" s="16">
@@ -3511,13 +3460,13 @@
         <v>44212</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K9" s="10"/>
     </row>
@@ -3526,13 +3475,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="25">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>945.35749999999996</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="19">
         <v>943</v>
       </c>
       <c r="E10" s="16">
@@ -3545,13 +3494,13 @@
         <v>44212</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K10" s="10"/>
     </row>
@@ -3560,7 +3509,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="15">
         <v>916.28499999999997</v>
@@ -3578,13 +3527,13 @@
         <v>44131</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K11" s="10"/>
     </row>
@@ -3593,13 +3542,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19">
         <f>((D12*0.0025)+D12)</f>
         <v>862.15</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="19">
         <v>860</v>
       </c>
       <c r="E12" s="16">
@@ -3612,13 +3561,13 @@
         <v>44212</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K12" s="10"/>
     </row>
@@ -3627,13 +3576,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19">
         <f t="shared" ref="C13:C14" si="1">((D13*0.0025)+D13)</f>
         <v>1062.6500000000001</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="19">
         <v>1060</v>
       </c>
       <c r="E13" s="16">
@@ -3646,13 +3595,13 @@
         <v>44212</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K13" s="10"/>
     </row>
@@ -3661,13 +3610,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="25">
+        <v>12</v>
+      </c>
+      <c r="C14" s="19">
         <f t="shared" si="1"/>
         <v>1042.5999999999999</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>1040</v>
       </c>
       <c r="E14" s="16">
@@ -3680,13 +3629,13 @@
         <v>44212</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K14" s="10"/>
       <c r="O14" s="8"/>
@@ -3696,12 +3645,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="25">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19">
         <v>1296.08</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="19">
         <v>1293</v>
       </c>
       <c r="E15" s="16">
@@ -3714,13 +3663,13 @@
         <v>44212</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15" s="10"/>
     </row>
@@ -3729,13 +3678,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="25">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19">
         <f t="shared" ref="C16" si="2">((D16*0.0025)+D16)</f>
         <v>994.48</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="19">
         <v>992</v>
       </c>
       <c r="E16" s="16">
@@ -3748,13 +3697,13 @@
         <v>44222</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K16" s="10"/>
     </row>
@@ -3763,12 +3712,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="25">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19">
         <v>999.49249999999995</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="19">
         <v>997</v>
       </c>
       <c r="E17" s="16">
@@ -3779,13 +3728,13 @@
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K17" s="10"/>
     </row>
@@ -3794,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="15">
         <v>1014.53</v>
@@ -3812,13 +3761,13 @@
         <v>44132</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K18" s="10"/>
     </row>
@@ -3827,7 +3776,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="15">
         <v>3947.38</v>
@@ -3843,13 +3792,13 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K19" s="10"/>
     </row>
@@ -3858,7 +3807,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="15">
         <v>4044.61</v>
@@ -3874,13 +3823,13 @@
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K20" s="10"/>
     </row>
@@ -3889,7 +3838,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="15">
         <v>5046.9880999999996</v>
@@ -3905,13 +3854,13 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K21" s="10"/>
     </row>
@@ -3920,7 +3869,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C22" s="15">
         <v>5427.89</v>
@@ -3936,13 +3885,13 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K22" s="10"/>
     </row>
@@ -3951,7 +3900,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="15">
         <v>5793.4475000000002</v>
@@ -3967,640 +3916,632 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="15">
-        <v>5382.7857000000004</v>
+        <v>6306.9809523809527</v>
       </c>
       <c r="D24" s="15">
-        <v>5370</v>
+        <v>6292</v>
       </c>
       <c r="E24" s="16">
-        <v>5510</v>
+        <v>6470</v>
       </c>
       <c r="F24" s="16">
-        <v>5890</v>
+        <v>6990</v>
       </c>
       <c r="G24" s="17">
-        <v>43914</v>
+        <v>43849</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="15">
-        <v>6306.9809523809527</v>
+        <v>6405.2142857142853</v>
       </c>
       <c r="D25" s="15">
-        <v>6292</v>
+        <v>6390</v>
       </c>
       <c r="E25" s="16">
-        <v>6470</v>
+        <v>6570</v>
       </c>
       <c r="F25" s="16">
         <v>6990</v>
       </c>
-      <c r="G25" s="17">
-        <v>43849</v>
-      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K25" s="10"/>
     </row>
     <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="15">
-        <v>5708.5595000000003</v>
+        <v>1004.3857</v>
       </c>
       <c r="D26" s="15">
-        <v>5695</v>
+        <v>1002</v>
       </c>
       <c r="E26" s="16">
-        <v>5855</v>
+        <v>1030</v>
       </c>
       <c r="F26" s="16">
-        <v>6295</v>
-      </c>
-      <c r="G26" s="17"/>
+        <v>1110</v>
+      </c>
+      <c r="G26" s="17">
+        <v>44126</v>
+      </c>
       <c r="H26" s="10" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="15">
-        <v>6405.2142857142853</v>
-      </c>
-      <c r="D27" s="15">
-        <v>6390</v>
+        <v>24</v>
+      </c>
+      <c r="C27" s="19">
+        <f t="shared" ref="C27:C28" si="3">((D27*0.0025)+D27)</f>
+        <v>1062.6500000000001</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1060</v>
       </c>
       <c r="E27" s="16">
-        <v>6570</v>
+        <v>1210</v>
       </c>
       <c r="F27" s="16">
-        <v>6990</v>
-      </c>
-      <c r="G27" s="17"/>
+        <v>1299</v>
+      </c>
+      <c r="G27" s="17">
+        <v>44212</v>
+      </c>
       <c r="H27" s="10" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1004.3857</v>
-      </c>
-      <c r="D28" s="15">
-        <v>1002</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="19">
+        <f t="shared" si="3"/>
+        <v>1062.6500000000001</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1060</v>
       </c>
       <c r="E28" s="16">
-        <v>1030</v>
+        <v>1270</v>
       </c>
       <c r="F28" s="16">
-        <v>1110</v>
+        <v>1350</v>
       </c>
       <c r="G28" s="17">
-        <v>44126</v>
+        <v>44212</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="25">
-        <f t="shared" ref="C29:C30" si="3">((D29*0.0025)+D29)</f>
-        <v>1062.6500000000001</v>
-      </c>
-      <c r="D29" s="25">
-        <v>1060</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="16">
-        <v>1210</v>
+        <v>1220</v>
       </c>
       <c r="F29" s="16">
         <v>1299</v>
       </c>
-      <c r="G29" s="17">
-        <v>44212</v>
-      </c>
+      <c r="G29" s="17"/>
       <c r="H29" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
+        <v>27</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="25">
-        <f t="shared" si="3"/>
-        <v>1062.6500000000001</v>
-      </c>
-      <c r="D30" s="25">
-        <v>1060</v>
+      <c r="C30" s="15">
+        <f>((D30*0.0025)+D30)</f>
+        <v>1150.8699999999999</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1148</v>
       </c>
       <c r="E30" s="16">
-        <v>1270</v>
+        <v>1360</v>
       </c>
       <c r="F30" s="16">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="G30" s="17">
         <v>44212</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
+        <v>28</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
+      <c r="C31" s="19">
+        <v>1120.6600000000001</v>
+      </c>
+      <c r="D31" s="19">
+        <v>1118</v>
+      </c>
       <c r="E31" s="16">
-        <v>1220</v>
+        <v>1280</v>
       </c>
       <c r="F31" s="16">
-        <v>1299</v>
+        <v>1370</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="15">
-        <f>((D32*0.0025)+D32)</f>
-        <v>1150.8699999999999</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1148</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="16">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="F32" s="16">
-        <v>1440</v>
-      </c>
-      <c r="G32" s="17">
-        <v>44212</v>
-      </c>
+        <v>1430</v>
+      </c>
+      <c r="G32" s="17"/>
       <c r="H32" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="15">
-        <v>1062.6500000000001</v>
+        <v>1227.9167</v>
       </c>
       <c r="D33" s="15">
-        <v>1060</v>
+        <v>1225</v>
       </c>
       <c r="E33" s="16">
-        <v>1090</v>
+        <v>1400</v>
       </c>
       <c r="F33" s="16">
-        <v>1180</v>
-      </c>
-      <c r="G33" s="17">
-        <v>44133</v>
-      </c>
+        <v>1499</v>
+      </c>
+      <c r="G33" s="17"/>
       <c r="H33" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="25">
-        <v>1120.6600000000001</v>
-      </c>
-      <c r="D34" s="25">
-        <v>1118</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="16">
-        <v>1280</v>
+        <v>1440</v>
       </c>
       <c r="F34" s="16">
-        <v>1370</v>
+        <v>1540</v>
       </c>
       <c r="G34" s="17"/>
       <c r="H34" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K34" s="10"/>
     </row>
     <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1140.845</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1138</v>
+      </c>
       <c r="E35" s="16">
-        <v>1340</v>
+        <v>1240</v>
       </c>
       <c r="F35" s="16">
-        <v>1430</v>
+        <v>1320</v>
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K35" s="10"/>
     </row>
     <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C36" s="15">
-        <v>1150.8699999999999</v>
+        <v>1188.9649999999999</v>
       </c>
       <c r="D36" s="15">
-        <v>1148</v>
+        <v>1186</v>
       </c>
       <c r="E36" s="16">
-        <v>1180</v>
+        <v>1220</v>
       </c>
       <c r="F36" s="16">
-        <v>1270</v>
-      </c>
-      <c r="G36" s="17">
-        <v>44133</v>
-      </c>
+        <v>1320</v>
+      </c>
+      <c r="G36" s="17"/>
       <c r="H36" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="K36" s="10"/>
     </row>
     <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="15">
-        <v>1227.9167</v>
+        <v>3548.43</v>
       </c>
       <c r="D37" s="15">
-        <v>1225</v>
+        <v>3540</v>
       </c>
       <c r="E37" s="16">
-        <v>1400</v>
+        <v>3640</v>
       </c>
       <c r="F37" s="16">
-        <v>1499</v>
+        <v>3890</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K37" s="10"/>
     </row>
     <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="15">
+        <v>7165.87</v>
+      </c>
+      <c r="D38" s="15">
+        <v>7148</v>
+      </c>
       <c r="E38" s="16">
-        <v>1440</v>
+        <v>7350</v>
       </c>
       <c r="F38" s="16">
-        <v>1540</v>
+        <v>7990</v>
       </c>
       <c r="G38" s="17"/>
       <c r="H38" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="25">
-        <v>1140.845</v>
-      </c>
-      <c r="D39" s="25">
-        <v>1138</v>
+        <v>33</v>
+      </c>
+      <c r="C39" s="15">
+        <v>7593.0357000000004</v>
+      </c>
+      <c r="D39" s="15">
+        <v>7575</v>
       </c>
       <c r="E39" s="16">
-        <v>1240</v>
+        <v>7790</v>
       </c>
       <c r="F39" s="16">
-        <v>1320</v>
+        <v>8290</v>
       </c>
       <c r="G39" s="17"/>
       <c r="H39" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="15">
-        <v>1188.9649999999999</v>
-      </c>
-      <c r="D40" s="15">
-        <v>1186</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="16">
-        <v>1220</v>
+        <v>7250</v>
       </c>
       <c r="F40" s="16">
-        <v>1320</v>
+        <v>7790</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41" s="15">
-        <v>3548.43</v>
+        <v>9066.5400000000009</v>
       </c>
       <c r="D41" s="15">
-        <v>3540</v>
+        <v>9045</v>
       </c>
       <c r="E41" s="16">
-        <v>3640</v>
+        <v>9300</v>
       </c>
       <c r="F41" s="16">
-        <v>3890</v>
+        <v>9790</v>
       </c>
       <c r="G41" s="17"/>
       <c r="H41" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
+        <v>39</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="C42" s="15">
-        <v>3520.78</v>
+        <v>9873.4524000000001</v>
       </c>
       <c r="D42" s="15">
-        <v>3512</v>
+        <v>9850</v>
       </c>
       <c r="E42" s="16">
-        <v>3610</v>
+        <v>10130</v>
       </c>
       <c r="F42" s="16">
-        <v>3890</v>
+        <v>10890</v>
       </c>
       <c r="G42" s="17"/>
       <c r="H42" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C43" s="15">
-        <v>7165.87</v>
+        <v>7603.0595000000003</v>
       </c>
       <c r="D43" s="15">
-        <v>7148</v>
+        <v>7585</v>
       </c>
       <c r="E43" s="16">
-        <v>7350</v>
+        <v>7800</v>
       </c>
       <c r="F43" s="16">
-        <v>7990</v>
-      </c>
-      <c r="G43" s="17"/>
+        <v>8390</v>
+      </c>
+      <c r="G43" s="17">
+        <v>44116</v>
+      </c>
       <c r="H43" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K43" s="10"/>
     </row>
@@ -4609,29 +4550,31 @@
         <v>41</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="15">
-        <v>7593.0357000000004</v>
+        <v>7778.4762000000001</v>
       </c>
       <c r="D44" s="15">
-        <v>7575</v>
+        <v>7760</v>
       </c>
       <c r="E44" s="16">
-        <v>7790</v>
+        <v>7980</v>
       </c>
       <c r="F44" s="16">
-        <v>8290</v>
-      </c>
-      <c r="G44" s="17"/>
+        <v>8490</v>
+      </c>
+      <c r="G44" s="17">
+        <v>44173</v>
+      </c>
       <c r="H44" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K44" s="10"/>
     </row>
@@ -4640,25 +4583,25 @@
         <v>42</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="16">
-        <v>7250</v>
+        <v>7980</v>
       </c>
       <c r="F45" s="16">
-        <v>7790</v>
+        <v>8590</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K45" s="10"/>
     </row>
@@ -4667,278 +4610,141 @@
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="15">
-        <v>9066.5400000000009</v>
-      </c>
-      <c r="D46" s="15">
-        <v>9045</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="16">
-        <v>9300</v>
+        <v>9750</v>
       </c>
       <c r="F46" s="16">
-        <v>9790</v>
+        <v>10490</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="10" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="15">
-        <v>9873.4524000000001</v>
-      </c>
-      <c r="D47" s="15">
-        <v>9850</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="16">
-        <v>10130</v>
+        <v>9750</v>
       </c>
       <c r="F47" s="16">
-        <v>10890</v>
+        <v>10490</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="10" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47" s="10"/>
+        <v>102</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>45</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="15">
-        <v>7603.0595000000003</v>
-      </c>
-      <c r="D48" s="15">
-        <v>7585</v>
-      </c>
-      <c r="E48" s="16">
-        <v>7800</v>
-      </c>
-      <c r="F48" s="16">
-        <v>8390</v>
-      </c>
-      <c r="G48" s="17">
-        <v>44116</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
     <row r="49" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>46</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="15">
-        <v>7778.4762000000001</v>
-      </c>
-      <c r="D49" s="15">
-        <v>7760</v>
-      </c>
-      <c r="E49" s="16">
-        <v>7980</v>
-      </c>
-      <c r="F49" s="16">
-        <v>8490</v>
-      </c>
-      <c r="G49" s="17">
-        <v>44173</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
     <row r="50" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>47</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>107</v>
-      </c>
+      <c r="B50" s="11"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="16">
-        <v>7980</v>
-      </c>
-      <c r="F50" s="16">
-        <v>8590</v>
-      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>106</v>
-      </c>
+      <c r="H50" s="10"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
     <row r="51" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
-        <v>48</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22">
-        <v>9750</v>
-      </c>
-      <c r="F51" s="22">
-        <v>10490</v>
-      </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J51" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="K51" s="19"/>
+      <c r="A51" s="36">
+        <v>8801717436223</v>
+      </c>
+      <c r="B51" s="37"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>49</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16">
-        <v>9750</v>
-      </c>
-      <c r="F52" s="16">
-        <v>10490</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>50</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="15">
-        <v>10133.069</v>
-      </c>
-      <c r="D53" s="15">
-        <v>10109</v>
-      </c>
-      <c r="E53" s="16">
-        <v>10340</v>
-      </c>
-      <c r="F53" s="16">
-        <v>10990</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42">
-        <v>8801717436223</v>
-      </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="K54" s="35"/>
-    </row>
-    <row r="55" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="J54:K55"/>
-    <mergeCell ref="E54:I55"/>
-    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="E51:I52"/>
+    <mergeCell ref="A51:B52"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -4963,224 +4769,224 @@
     <col min="1" max="1" width="23.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="31"/>
+    <col min="4" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-    </row>
-    <row r="3" spans="1:9" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="A2" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>122</v>
+      <c r="A4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28">
+      <c r="A5" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22">
         <v>8990</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28">
+      <c r="A6" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22">
         <v>10990</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="A7" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="22">
         <f>8990+4000</f>
         <v>12990</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="28">
+      <c r="A8" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="22">
         <f>10990+4000</f>
         <v>14990</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="A9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="22">
         <f>12990+4000</f>
         <v>16990</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="A10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="22">
         <f>13990+4000</f>
         <v>17990</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="28">
+      <c r="A11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="22">
         <f>15490+4000</f>
         <v>19490</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="28">
+      <c r="A12" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="22">
         <f>11990+4000</f>
         <v>15990</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="28">
+      <c r="A13" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="22">
         <f>11990+4000</f>
         <v>15990</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="28">
+      <c r="A14" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="22">
         <f>17990+4000</f>
         <v>21990</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="A15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="22">
         <f>27990+4000</f>
         <v>31990</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="28"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="28"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="28"/>
+      <c r="A18" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="28">
+      <c r="A19" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="22">
         <f>27990+4000</f>
         <v>31990</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="28">
+      <c r="A20" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="22">
         <f>12990+4000</f>
         <v>16990</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="50.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Symphony/2021/Others/Price List/Price List -25.04.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -25.04.2021.xlsx
@@ -446,13 +446,13 @@
     <t>8 (8GB+128GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 03/05/2021</t>
-  </si>
-  <si>
     <t>Helio - G35  Gaming Processor</t>
   </si>
   <si>
     <t xml:space="preserve">SN </t>
+  </si>
+  <si>
+    <t>Last Updated on: 05/05/2021</t>
   </si>
 </sst>
 </file>
@@ -864,7 +864,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="66675" y="10601325"/>
-          <a:ext cx="5019675" cy="310450"/>
+          <a:ext cx="5133975" cy="310450"/>
           <a:chOff x="253" y="246"/>
           <a:chExt cx="346" cy="308"/>
         </a:xfrm>
@@ -3211,14 +3211,14 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>106</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4660,7 +4660,7 @@
         <v>102</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/Symphony/2021/Others/Price List/Price List -25.04.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -25.04.2021.xlsx
@@ -452,7 +452,7 @@
     <t xml:space="preserve">SN </t>
   </si>
   <si>
-    <t>Last Updated on: 05/05/2021</t>
+    <t>Last Updated on: 11/05/2021</t>
   </si>
 </sst>
 </file>
@@ -3211,8 +3211,8 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4615,10 +4615,10 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="16">
-        <v>9750</v>
+        <v>9290</v>
       </c>
       <c r="F46" s="16">
-        <v>10490</v>
+        <v>9990</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="10" t="s">
@@ -4644,10 +4644,10 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="16">
-        <v>9750</v>
+        <v>9290</v>
       </c>
       <c r="F47" s="16">
-        <v>10490</v>
+        <v>9990</v>
       </c>
       <c r="G47" s="17"/>
       <c r="H47" s="10" t="s">
